--- a/traci.xlsx
+++ b/traci.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MHD\Desktop\traciTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7399305-DDFF-42C2-8845-9A7A32857D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A220B887-E1A3-4404-BB68-E6E2E7FFF642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F1FCA290-610F-4DF8-A2E9-1B92D9951A01}"/>
   </bookViews>
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B26A24-572F-431C-A05B-86A711A155DE}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -643,7 +643,7 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
